--- a/docs/需求整理.xlsx
+++ b/docs/需求整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="420" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>接口使用全路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,50 @@
   </si>
   <si>
     <t>搜索跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端做到兼容全路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没办法测试（可能需要等到审核过以后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制更新功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要客户端集体的更新最新版本时，需要强制提示用户更新应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加客户端设置接口地址的偏好设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,13 +121,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,13 +172,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -439,34 +528,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -476,37 +595,69 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
